--- a/testing/time/time trial 1/time.xlsx
+++ b/testing/time/time trial 1/time.xlsx
@@ -8,185 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinimlay/Documents/School/graduate/CS685 - Graduate Research/kmeans_mpi/testing/time/time trial 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08454EE-083D-2245-AB67-66D8A13A01AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6D0E3-ADE1-4943-8428-F7FFF29B4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{5D430E34-A7B4-D643-AC81-90CD584A2DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="9-23-21" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.152" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.153" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.154" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.155" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.156" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.157" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.158" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.159" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.160" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.161" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.162" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.163" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.164" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.165" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.166" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.167" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.168" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.169" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'9-23-21'!$C$28:$M$28</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'9-23-21'!$C$29:$M$29</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'9-23-21'!$B$22</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">'9-23-21'!$B$23</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'9-23-21'!$B$24</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">'9-23-21'!$B$25</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'9-23-21'!$B$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'9-23-21'!$B$27</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'9-23-21'!$B$28</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'9-23-21'!$B$29</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'9-23-21'!$C$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'9-23-21'!$C$22:$M$22</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'9-23-21'!$C$23:$M$23</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'9-23-21'!$C$24:$M$24</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'9-23-21'!$C$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'9-23-21'!$C$26:$M$26</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'9-23-21'!$C$27:$M$27</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -206,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>Sequential Lloyd</t>
   </si>
@@ -250,9 +78,6 @@
     <t>Speedup</t>
   </si>
   <si>
-    <t>Lin dif</t>
-  </si>
-  <si>
     <t>k=1</t>
   </si>
   <si>
@@ -288,15 +113,37 @@
   <si>
     <t>Linear</t>
   </si>
+  <si>
+    <t>1,000,000 points, 10 proccess</t>
+  </si>
+  <si>
+    <t>1,000,000 points, 12 proccess</t>
+  </si>
+  <si>
+    <t>1,000,000 points, 14 proccess</t>
+  </si>
+  <si>
+    <t>1,000,000 points, 16 proccess</t>
+  </si>
+  <si>
+    <t>1,000,000 points, 18 proccess</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,10 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -480,16 +328,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$C$22:$C$29</c:f>
+              <c:f>'9-23-21'!$C$22:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.2240100030228918</c:v>
                 </c:pt>
@@ -513,6 +376,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.1963042698241839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3115921151683567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3892394241536308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4904352201961184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2750135674381484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.32508548012424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,10 +432,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -581,16 +459,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$D$22:$D$29</c:f>
+              <c:f>'9-23-21'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.0295977535790095</c:v>
                 </c:pt>
@@ -614,6 +507,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.0386001763016797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0683557287926968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4453325391717025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3322805747312962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5573100989474922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5273020790868319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,10 +563,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -682,16 +590,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$E$22:$E$29</c:f>
+              <c:f>'9-23-21'!$E$22:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.030736098061102</c:v>
                 </c:pt>
@@ -715,6 +638,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.1113032694570864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0479056091300993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.535246984812388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5753348135699827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9989127580661039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2861795452388378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,10 +694,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -783,16 +721,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$F$22:$F$29</c:f>
+              <c:f>'9-23-21'!$F$22:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.99619508686938207</c:v>
                 </c:pt>
@@ -816,6 +769,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.95951825710039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.212015381596717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0441865886481239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6820947685312859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1642974962175936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7985459062053044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,7 +791,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000001-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -857,10 +825,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -884,16 +852,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$G$22:$G$29</c:f>
+              <c:f>'9-23-21'!$G$22:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.94657375254700049</c:v>
                 </c:pt>
@@ -917,6 +900,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.4626546373768052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.49835086483212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1881835258864601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.310245254368823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2912088739221037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6859969454653045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +922,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000002-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -958,10 +956,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -985,16 +983,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$H$22:$H$29</c:f>
+              <c:f>'9-23-21'!$H$22:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.94969487300775846</c:v>
                 </c:pt>
@@ -1018,6 +1031,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.788899494753136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2384376580393077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2274734983472193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8687862590944135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.572529375786678</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9466044060282002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000003-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1059,10 +1087,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1086,16 +1114,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$I$22:$I$29</c:f>
+              <c:f>'9-23-21'!$I$22:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.95061839782004476</c:v>
                 </c:pt>
@@ -1119,6 +1162,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.9967416962825286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5405248802508051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7438707464318206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.590543556135549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.491969962750325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.86112841003669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1184,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000004-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1160,10 +1218,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1187,16 +1245,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$J$22:$J$29</c:f>
+              <c:f>'9-23-21'!$J$22:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.95172415953319911</c:v>
                 </c:pt>
@@ -1220,6 +1293,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.112592413871984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7779770025362733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.096276990195857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.066562366058806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.276813456209293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.080706686003422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1315,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000005-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,10 +1349,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1288,16 +1376,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$K$22:$K$29</c:f>
+              <c:f>'9-23-21'!$K$22:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.95337972438899243</c:v>
                 </c:pt>
@@ -1321,6 +1424,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.1465471350745853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8305148048009432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.220536444728845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.176388544647597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.453730374304532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.243708139145529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,7 +1446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000006-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1362,10 +1480,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1389,16 +1507,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$L$22:$L$29</c:f>
+              <c:f>'9-23-21'!$L$22:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.95301309681828328</c:v>
                 </c:pt>
@@ -1422,6 +1555,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.1557538884240355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8726568669960013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.149103900387511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.246815921253306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.280010880563319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.989846380611624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1577,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000007-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1463,10 +1611,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1490,16 +1638,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$M$22:$M$29</c:f>
+              <c:f>'9-23-21'!$M$22:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.95324157169309975</c:v>
                 </c:pt>
@@ -1523,6 +1686,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.1792240835620813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9128667051949293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.214816341540876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.353873640822171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.444106971753138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.339712664667053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,7 +1708,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000008-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1565,10 +1743,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'9-23-21'!$B$22:$B$29</c:f>
+              <c:f>'9-23-21'!$B$22:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1592,16 +1770,31 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9-23-21'!$N$22:$N$29</c:f>
+              <c:f>'9-23-21'!$N$22:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1625,6 +1818,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-56DC-5249-9B6D-66FA70DC580F}"/>
+              <c16:uniqueId val="{00000009-3DAF-F646-B9F4-915779563AC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1648,7 +1856,7 @@
         <c:axId val="1763522767"/>
         <c:axId val="1763454575"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1763522767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1715,7 +1923,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1754,11 +1962,11 @@
         </c:txPr>
         <c:crossAx val="1763454575"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1763454575"/>
         <c:scaling>
@@ -2483,15 +2691,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1301749</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4535</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>2721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2817,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72369FC1-3935-1348-B1DE-5CB72262D05A}">
-  <dimension ref="A1:DL29"/>
+  <dimension ref="A1:FY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2830,7 +3038,7 @@
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2885,8 +3093,68 @@
       <c r="DB1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="DN1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="EN1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EO1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="FA1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FN1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FO1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3"/>
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3"/>
+      <c r="FY1" s="3"/>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3211,8 +3479,188 @@
       <c r="DL2" s="1">
         <v>1024</v>
       </c>
+      <c r="DN2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>8</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>16</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>32</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>64</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>128</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>256</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>512</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>4</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>8</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>16</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>32</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>64</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>128</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>256</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>512</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP2" s="3">
+        <v>2</v>
+      </c>
+      <c r="EQ2" s="3">
+        <v>4</v>
+      </c>
+      <c r="ER2" s="3">
+        <v>8</v>
+      </c>
+      <c r="ES2" s="3">
+        <v>16</v>
+      </c>
+      <c r="ET2" s="3">
+        <v>32</v>
+      </c>
+      <c r="EU2" s="3">
+        <v>64</v>
+      </c>
+      <c r="EV2" s="3">
+        <v>128</v>
+      </c>
+      <c r="EW2" s="3">
+        <v>256</v>
+      </c>
+      <c r="EX2" s="3">
+        <v>512</v>
+      </c>
+      <c r="EY2" s="3">
+        <v>1024</v>
+      </c>
+      <c r="FA2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD2" s="3">
+        <v>4</v>
+      </c>
+      <c r="FE2" s="3">
+        <v>8</v>
+      </c>
+      <c r="FF2" s="3">
+        <v>16</v>
+      </c>
+      <c r="FG2" s="3">
+        <v>32</v>
+      </c>
+      <c r="FH2" s="3">
+        <v>64</v>
+      </c>
+      <c r="FI2" s="3">
+        <v>128</v>
+      </c>
+      <c r="FJ2" s="3">
+        <v>256</v>
+      </c>
+      <c r="FK2" s="3">
+        <v>512</v>
+      </c>
+      <c r="FL2" s="3">
+        <v>1024</v>
+      </c>
+      <c r="FN2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="FP2" s="3">
+        <v>2</v>
+      </c>
+      <c r="FQ2" s="3">
+        <v>4</v>
+      </c>
+      <c r="FR2" s="3">
+        <v>8</v>
+      </c>
+      <c r="FS2" s="3">
+        <v>16</v>
+      </c>
+      <c r="FT2" s="3">
+        <v>32</v>
+      </c>
+      <c r="FU2" s="3">
+        <v>64</v>
+      </c>
+      <c r="FV2" s="3">
+        <v>128</v>
+      </c>
+      <c r="FW2" s="3">
+        <v>256</v>
+      </c>
+      <c r="FX2" s="3">
+        <v>512</v>
+      </c>
+      <c r="FY2" s="3">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3537,8 +3985,188 @@
       <c r="DL3" s="1">
         <v>156.15064000000001</v>
       </c>
+      <c r="DN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="1">
+        <v>1.2874E-2</v>
+      </c>
+      <c r="DP3" s="1">
+        <v>3.8488000000000001E-2</v>
+      </c>
+      <c r="DQ3" s="1">
+        <v>7.2415999999999994E-2</v>
+      </c>
+      <c r="DR3" s="1">
+        <v>0.14748900000000001</v>
+      </c>
+      <c r="DS3" s="1">
+        <v>1.103566</v>
+      </c>
+      <c r="DT3" s="1">
+        <v>2.7096830000000001</v>
+      </c>
+      <c r="DU3" s="1">
+        <v>5.8799489999999999</v>
+      </c>
+      <c r="DV3" s="1">
+        <v>18.280988000000001</v>
+      </c>
+      <c r="DW3" s="1">
+        <v>28.306943</v>
+      </c>
+      <c r="DX3" s="1">
+        <v>29.255772</v>
+      </c>
+      <c r="DY3" s="1">
+        <v>125.67226599999999</v>
+      </c>
+      <c r="EA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="1">
+        <v>1.5214E-2</v>
+      </c>
+      <c r="EC3" s="1">
+        <v>4.0152E-2</v>
+      </c>
+      <c r="ED3" s="1">
+        <v>5.5640000000000002E-2</v>
+      </c>
+      <c r="EE3" s="1">
+        <v>0.131851</v>
+      </c>
+      <c r="EF3" s="1">
+        <v>1.0302690000000001</v>
+      </c>
+      <c r="EG3" s="1">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="EH3" s="1">
+        <v>5.0947839999999998</v>
+      </c>
+      <c r="EI3" s="1">
+        <v>16.158837999999999</v>
+      </c>
+      <c r="EJ3" s="1">
+        <v>24.462313000000002</v>
+      </c>
+      <c r="EK3" s="1">
+        <v>25.599837000000001</v>
+      </c>
+      <c r="EL3" s="1">
+        <v>109.749853</v>
+      </c>
+      <c r="EN3" s="3">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="3">
+        <v>1.643E-2</v>
+      </c>
+      <c r="EP3" s="3">
+        <v>3.9275999999999998E-2</v>
+      </c>
+      <c r="EQ3" s="3">
+        <v>3.9101999999999998E-2</v>
+      </c>
+      <c r="ER3" s="3">
+        <v>0.115775</v>
+      </c>
+      <c r="ES3" s="3">
+        <v>0.94298499999999996</v>
+      </c>
+      <c r="ET3" s="3">
+        <v>2.368185</v>
+      </c>
+      <c r="EU3" s="3">
+        <v>4.7664030000000004</v>
+      </c>
+      <c r="EV3" s="3">
+        <v>14.547233</v>
+      </c>
+      <c r="EW3" s="3">
+        <v>22.461290999999999</v>
+      </c>
+      <c r="EX3" s="3">
+        <v>22.999618999999999</v>
+      </c>
+      <c r="EY3" s="3">
+        <v>98.716072999999994</v>
+      </c>
+      <c r="FA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FB3" s="3">
+        <v>1.7398E-2</v>
+      </c>
+      <c r="FC3" s="3">
+        <v>3.7780000000000001E-2</v>
+      </c>
+      <c r="FD3" s="3">
+        <v>5.3603999999999999E-2</v>
+      </c>
+      <c r="FE3" s="3">
+        <v>0.10746799999999999</v>
+      </c>
+      <c r="FF3" s="3">
+        <v>0.880386</v>
+      </c>
+      <c r="FG3" s="3">
+        <v>2.1235970000000002</v>
+      </c>
+      <c r="FH3" s="3">
+        <v>4.2576530000000004</v>
+      </c>
+      <c r="FI3" s="3">
+        <v>13.139409000000001</v>
+      </c>
+      <c r="FJ3" s="3">
+        <v>20.148568999999998</v>
+      </c>
+      <c r="FK3" s="3">
+        <v>21.031448999999999</v>
+      </c>
+      <c r="FL3" s="3">
+        <v>89.947034000000002</v>
+      </c>
+      <c r="FN3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="3">
+        <v>1.8599000000000001E-2</v>
+      </c>
+      <c r="FP3" s="3">
+        <v>3.6312999999999998E-2</v>
+      </c>
+      <c r="FQ3" s="3">
+        <v>4.6532999999999998E-2</v>
+      </c>
+      <c r="FR3" s="3">
+        <v>9.6059000000000005E-2</v>
+      </c>
+      <c r="FS3" s="3">
+        <v>0.83868299999999996</v>
+      </c>
+      <c r="FT3" s="3">
+        <v>2.2109000000000001</v>
+      </c>
+      <c r="FU3" s="3">
+        <v>4.1589929999999997</v>
+      </c>
+      <c r="FV3" s="3">
+        <v>12.23517</v>
+      </c>
+      <c r="FW3" s="3">
+        <v>18.989978000000001</v>
+      </c>
+      <c r="FX3" s="3">
+        <v>19.828569999999999</v>
+      </c>
+      <c r="FY3" s="3">
+        <v>83.958934999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3863,8 +4491,188 @@
       <c r="DL4" s="1">
         <v>156.60262299999999</v>
       </c>
+      <c r="DN4" s="1">
+        <v>2</v>
+      </c>
+      <c r="DO4" s="1">
+        <v>1.6088999999999999E-2</v>
+      </c>
+      <c r="DP4" s="1">
+        <v>3.9738000000000002E-2</v>
+      </c>
+      <c r="DQ4" s="1">
+        <v>5.5930000000000001E-2</v>
+      </c>
+      <c r="DR4" s="1">
+        <v>0.101107</v>
+      </c>
+      <c r="DS4" s="1">
+        <v>1.0790280000000001</v>
+      </c>
+      <c r="DT4" s="1">
+        <v>2.7878280000000002</v>
+      </c>
+      <c r="DU4" s="1">
+        <v>5.8328319999999998</v>
+      </c>
+      <c r="DV4" s="1">
+        <v>18.328579000000001</v>
+      </c>
+      <c r="DW4" s="1">
+        <v>28.437937999999999</v>
+      </c>
+      <c r="DX4" s="1">
+        <v>29.219926000000001</v>
+      </c>
+      <c r="DY4" s="1">
+        <v>126.089645</v>
+      </c>
+      <c r="EA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="EB4" s="1">
+        <v>1.7262E-2</v>
+      </c>
+      <c r="EC4" s="1">
+        <v>3.5908000000000002E-2</v>
+      </c>
+      <c r="ED4" s="1">
+        <v>4.6663999999999997E-2</v>
+      </c>
+      <c r="EE4" s="1">
+        <v>9.7797999999999996E-2</v>
+      </c>
+      <c r="EF4" s="1">
+        <v>0.88760099999999997</v>
+      </c>
+      <c r="EG4" s="1">
+        <v>2.4204759999999998</v>
+      </c>
+      <c r="EH4" s="1">
+        <v>5.2104499999999998</v>
+      </c>
+      <c r="EI4" s="1">
+        <v>15.875707</v>
+      </c>
+      <c r="EJ4" s="1">
+        <v>24.613368000000001</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>25.600801000000001</v>
+      </c>
+      <c r="EL4" s="1">
+        <v>109.63099200000001</v>
+      </c>
+      <c r="EN4" s="3">
+        <v>2</v>
+      </c>
+      <c r="EO4" s="3">
+        <v>1.6534E-2</v>
+      </c>
+      <c r="EP4" s="3">
+        <v>4.1222000000000002E-2</v>
+      </c>
+      <c r="EQ4" s="3">
+        <v>5.2477000000000003E-2</v>
+      </c>
+      <c r="ER4" s="3">
+        <v>0.115135</v>
+      </c>
+      <c r="ES4" s="3">
+        <v>0.88972499999999999</v>
+      </c>
+      <c r="ET4" s="3">
+        <v>2.273841</v>
+      </c>
+      <c r="EU4" s="3">
+        <v>4.6958349999999998</v>
+      </c>
+      <c r="EV4" s="3">
+        <v>14.53299</v>
+      </c>
+      <c r="EW4" s="3">
+        <v>22.367521</v>
+      </c>
+      <c r="EX4" s="3">
+        <v>23.078786999999998</v>
+      </c>
+      <c r="EY4" s="3">
+        <v>98.601185999999998</v>
+      </c>
+      <c r="FA4" s="3">
+        <v>2</v>
+      </c>
+      <c r="FB4" s="3">
+        <v>1.7243000000000001E-2</v>
+      </c>
+      <c r="FC4" s="3">
+        <v>3.7213999999999997E-2</v>
+      </c>
+      <c r="FD4" s="3">
+        <v>4.6303999999999998E-2</v>
+      </c>
+      <c r="FE4" s="3">
+        <v>0.112569</v>
+      </c>
+      <c r="FF4" s="3">
+        <v>0.89658400000000005</v>
+      </c>
+      <c r="FG4" s="3">
+        <v>2.116695</v>
+      </c>
+      <c r="FH4" s="3">
+        <v>4.3307690000000001</v>
+      </c>
+      <c r="FI4" s="3">
+        <v>13.084292</v>
+      </c>
+      <c r="FJ4" s="3">
+        <v>20.226202000000001</v>
+      </c>
+      <c r="FK4" s="3">
+        <v>21.17437</v>
+      </c>
+      <c r="FL4" s="3">
+        <v>90.039873999999998</v>
+      </c>
+      <c r="FN4" s="3">
+        <v>2</v>
+      </c>
+      <c r="FO4" s="3">
+        <v>1.9508000000000001E-2</v>
+      </c>
+      <c r="FP4" s="3">
+        <v>3.9219999999999998E-2</v>
+      </c>
+      <c r="FQ4" s="3">
+        <v>4.6807000000000001E-2</v>
+      </c>
+      <c r="FR4" s="3">
+        <v>9.8960000000000006E-2</v>
+      </c>
+      <c r="FS4" s="3">
+        <v>0.92783499999999997</v>
+      </c>
+      <c r="FT4" s="3">
+        <v>2.1474139999999999</v>
+      </c>
+      <c r="FU4" s="3">
+        <v>4.0862470000000002</v>
+      </c>
+      <c r="FV4" s="3">
+        <v>12.155414</v>
+      </c>
+      <c r="FW4" s="3">
+        <v>18.804424999999998</v>
+      </c>
+      <c r="FX4" s="3">
+        <v>19.834463</v>
+      </c>
+      <c r="FY4" s="3">
+        <v>83.742058</v>
+      </c>
     </row>
-    <row r="5" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4189,8 +4997,188 @@
       <c r="DL5" s="1">
         <v>155.990847</v>
       </c>
+      <c r="DN5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DO5" s="1">
+        <v>1.3375E-2</v>
+      </c>
+      <c r="DP5" s="1">
+        <v>4.6309999999999997E-2</v>
+      </c>
+      <c r="DQ5" s="1">
+        <v>5.4747999999999998E-2</v>
+      </c>
+      <c r="DR5" s="1">
+        <v>0.14619599999999999</v>
+      </c>
+      <c r="DS5" s="1">
+        <v>1.0401309999999999</v>
+      </c>
+      <c r="DT5" s="1">
+        <v>2.6902919999999999</v>
+      </c>
+      <c r="DU5" s="1">
+        <v>5.789174</v>
+      </c>
+      <c r="DV5" s="1">
+        <v>18.380821999999998</v>
+      </c>
+      <c r="DW5" s="1">
+        <v>28.521837999999999</v>
+      </c>
+      <c r="DX5" s="1">
+        <v>29.548179999999999</v>
+      </c>
+      <c r="DY5" s="1">
+        <v>125.710936</v>
+      </c>
+      <c r="EA5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EB5" s="1">
+        <v>3.5126999999999999E-2</v>
+      </c>
+      <c r="EC5" s="1">
+        <v>3.8814000000000001E-2</v>
+      </c>
+      <c r="ED5" s="1">
+        <v>5.1570999999999999E-2</v>
+      </c>
+      <c r="EE5" s="1">
+        <v>0.142538</v>
+      </c>
+      <c r="EF5" s="1">
+        <v>0.96230499999999997</v>
+      </c>
+      <c r="EG5" s="1">
+        <v>2.4613179999999999</v>
+      </c>
+      <c r="EH5" s="1">
+        <v>5.1055460000000004</v>
+      </c>
+      <c r="EI5" s="1">
+        <v>15.947948</v>
+      </c>
+      <c r="EJ5" s="1">
+        <v>24.610564</v>
+      </c>
+      <c r="EK5" s="1">
+        <v>25.539667000000001</v>
+      </c>
+      <c r="EL5" s="1">
+        <v>109.849986</v>
+      </c>
+      <c r="EN5" s="3">
+        <v>3</v>
+      </c>
+      <c r="EO5" s="3">
+        <v>1.6839E-2</v>
+      </c>
+      <c r="EP5" s="3">
+        <v>3.9054999999999999E-2</v>
+      </c>
+      <c r="EQ5" s="3">
+        <v>5.3460000000000001E-2</v>
+      </c>
+      <c r="ER5" s="3">
+        <v>0.11799900000000001</v>
+      </c>
+      <c r="ES5" s="3">
+        <v>0.94823299999999999</v>
+      </c>
+      <c r="ET5" s="3">
+        <v>2.211897</v>
+      </c>
+      <c r="EU5" s="3">
+        <v>4.769628</v>
+      </c>
+      <c r="EV5" s="3">
+        <v>14.498338</v>
+      </c>
+      <c r="EW5" s="3">
+        <v>22.473804999999999</v>
+      </c>
+      <c r="EX5" s="3">
+        <v>23.054663000000001</v>
+      </c>
+      <c r="EY5" s="3">
+        <v>98.647243000000003</v>
+      </c>
+      <c r="FA5" s="3">
+        <v>3</v>
+      </c>
+      <c r="FB5" s="3">
+        <v>1.8821000000000001E-2</v>
+      </c>
+      <c r="FC5" s="3">
+        <v>3.8802000000000003E-2</v>
+      </c>
+      <c r="FD5" s="3">
+        <v>4.752E-2</v>
+      </c>
+      <c r="FE5" s="3">
+        <v>0.101608</v>
+      </c>
+      <c r="FF5" s="3">
+        <v>1.0502910000000001</v>
+      </c>
+      <c r="FG5" s="3">
+        <v>2.1653579999999999</v>
+      </c>
+      <c r="FH5" s="3">
+        <v>4.4939549999999997</v>
+      </c>
+      <c r="FI5" s="3">
+        <v>13.135052999999999</v>
+      </c>
+      <c r="FJ5" s="3">
+        <v>20.105135000000001</v>
+      </c>
+      <c r="FK5" s="3">
+        <v>21.164294999999999</v>
+      </c>
+      <c r="FL5" s="3">
+        <v>90.085924000000006</v>
+      </c>
+      <c r="FN5" s="3">
+        <v>3</v>
+      </c>
+      <c r="FO5" s="3">
+        <v>2.0787E-2</v>
+      </c>
+      <c r="FP5" s="3">
+        <v>4.1794999999999999E-2</v>
+      </c>
+      <c r="FQ5" s="3">
+        <v>4.4803999999999997E-2</v>
+      </c>
+      <c r="FR5" s="3">
+        <v>0.104255</v>
+      </c>
+      <c r="FS5" s="3">
+        <v>0.98570400000000002</v>
+      </c>
+      <c r="FT5" s="3">
+        <v>2.2338809999999998</v>
+      </c>
+      <c r="FU5" s="3">
+        <v>4.0641439999999998</v>
+      </c>
+      <c r="FV5" s="3">
+        <v>12.259477</v>
+      </c>
+      <c r="FW5" s="3">
+        <v>19.648636</v>
+      </c>
+      <c r="FX5" s="3">
+        <v>19.612777999999999</v>
+      </c>
+      <c r="FY5" s="3">
+        <v>83.771777999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4515,8 +5503,188 @@
       <c r="DL6" s="1">
         <v>155.99996999999999</v>
       </c>
+      <c r="DN6" s="1">
+        <v>4</v>
+      </c>
+      <c r="DO6" s="1">
+        <v>1.2648E-2</v>
+      </c>
+      <c r="DP6" s="1">
+        <v>4.6027999999999999E-2</v>
+      </c>
+      <c r="DQ6" s="1">
+        <v>5.8276000000000001E-2</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>0.107901</v>
+      </c>
+      <c r="DS6" s="1">
+        <v>0.99672899999999998</v>
+      </c>
+      <c r="DT6" s="1">
+        <v>2.6703709999999998</v>
+      </c>
+      <c r="DU6" s="1">
+        <v>5.864852</v>
+      </c>
+      <c r="DV6" s="1">
+        <v>18.547201999999999</v>
+      </c>
+      <c r="DW6" s="1">
+        <v>28.353425999999999</v>
+      </c>
+      <c r="DX6" s="1">
+        <v>29.148415</v>
+      </c>
+      <c r="DY6" s="1">
+        <v>125.99318599999999</v>
+      </c>
+      <c r="EA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="EB6" s="1">
+        <v>1.5361E-2</v>
+      </c>
+      <c r="EC6" s="1">
+        <v>3.2141999999999997E-2</v>
+      </c>
+      <c r="ED6" s="1">
+        <v>5.3718000000000002E-2</v>
+      </c>
+      <c r="EE6" s="1">
+        <v>0.100067</v>
+      </c>
+      <c r="EF6" s="1">
+        <v>0.92306699999999997</v>
+      </c>
+      <c r="EG6" s="1">
+        <v>2.368277</v>
+      </c>
+      <c r="EH6" s="1">
+        <v>5.0591799999999996</v>
+      </c>
+      <c r="EI6" s="1">
+        <v>15.923482</v>
+      </c>
+      <c r="EJ6" s="1">
+        <v>24.563514000000001</v>
+      </c>
+      <c r="EK6" s="1">
+        <v>25.591418999999998</v>
+      </c>
+      <c r="EL6" s="1">
+        <v>109.736221</v>
+      </c>
+      <c r="EN6" s="3">
+        <v>4</v>
+      </c>
+      <c r="EO6" s="3">
+        <v>1.8530999999999999E-2</v>
+      </c>
+      <c r="EP6" s="3">
+        <v>3.9143999999999998E-2</v>
+      </c>
+      <c r="EQ6" s="3">
+        <v>5.1241000000000002E-2</v>
+      </c>
+      <c r="ER6" s="3">
+        <v>0.115882</v>
+      </c>
+      <c r="ES6" s="3">
+        <v>0.84722600000000003</v>
+      </c>
+      <c r="ET6" s="3">
+        <v>2.3088600000000001</v>
+      </c>
+      <c r="EU6" s="3">
+        <v>4.6833320000000001</v>
+      </c>
+      <c r="EV6" s="3">
+        <v>14.613764</v>
+      </c>
+      <c r="EW6" s="3">
+        <v>22.372778</v>
+      </c>
+      <c r="EX6" s="3">
+        <v>23.045812999999999</v>
+      </c>
+      <c r="EY6" s="3">
+        <v>98.725824000000003</v>
+      </c>
+      <c r="FA6" s="3">
+        <v>4</v>
+      </c>
+      <c r="FB6" s="3">
+        <v>1.8086000000000001E-2</v>
+      </c>
+      <c r="FC6" s="3">
+        <v>3.8725999999999997E-2</v>
+      </c>
+      <c r="FD6" s="3">
+        <v>4.7565000000000003E-2</v>
+      </c>
+      <c r="FE6" s="3">
+        <v>0.112793</v>
+      </c>
+      <c r="FF6" s="3">
+        <v>0.89516300000000004</v>
+      </c>
+      <c r="FG6" s="3">
+        <v>2.1273469999999999</v>
+      </c>
+      <c r="FH6" s="3">
+        <v>4.3375680000000001</v>
+      </c>
+      <c r="FI6" s="3">
+        <v>13.140752000000001</v>
+      </c>
+      <c r="FJ6" s="3">
+        <v>20.218432</v>
+      </c>
+      <c r="FK6" s="3">
+        <v>21.102573</v>
+      </c>
+      <c r="FL6" s="3">
+        <v>90.118003999999999</v>
+      </c>
+      <c r="FN6" s="3">
+        <v>4</v>
+      </c>
+      <c r="FO6" s="3">
+        <v>1.8988000000000001E-2</v>
+      </c>
+      <c r="FP6" s="3">
+        <v>3.7096999999999998E-2</v>
+      </c>
+      <c r="FQ6" s="3">
+        <v>4.6605000000000001E-2</v>
+      </c>
+      <c r="FR6" s="3">
+        <v>9.8415000000000002E-2</v>
+      </c>
+      <c r="FS6" s="3">
+        <v>1.0447489999999999</v>
+      </c>
+      <c r="FT6" s="3">
+        <v>2.00109</v>
+      </c>
+      <c r="FU6" s="3">
+        <v>4.152425</v>
+      </c>
+      <c r="FV6" s="3">
+        <v>12.384415000000001</v>
+      </c>
+      <c r="FW6" s="3">
+        <v>18.670546999999999</v>
+      </c>
+      <c r="FX6" s="3">
+        <v>20.287780000000001</v>
+      </c>
+      <c r="FY6" s="3">
+        <v>83.737909000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4841,8 +6009,188 @@
       <c r="DL7" s="1">
         <v>156.12109799999999</v>
       </c>
+      <c r="DN7" s="1">
+        <v>5</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>1.2621E-2</v>
+      </c>
+      <c r="DP7" s="1">
+        <v>4.6542E-2</v>
+      </c>
+      <c r="DQ7" s="1">
+        <v>6.5004999999999993E-2</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>0.14629900000000001</v>
+      </c>
+      <c r="DS7" s="1">
+        <v>1.054735</v>
+      </c>
+      <c r="DT7" s="1">
+        <v>2.6789670000000001</v>
+      </c>
+      <c r="DU7" s="1">
+        <v>5.8126230000000003</v>
+      </c>
+      <c r="DV7" s="1">
+        <v>18.272535000000001</v>
+      </c>
+      <c r="DW7" s="1">
+        <v>28.506257000000002</v>
+      </c>
+      <c r="DX7" s="1">
+        <v>29.387868999999998</v>
+      </c>
+      <c r="DY7" s="1">
+        <v>125.279111</v>
+      </c>
+      <c r="EA7" s="1">
+        <v>5</v>
+      </c>
+      <c r="EB7" s="1">
+        <v>1.5938000000000001E-2</v>
+      </c>
+      <c r="EC7" s="1">
+        <v>4.0291E-2</v>
+      </c>
+      <c r="ED7" s="1">
+        <v>5.5820000000000002E-2</v>
+      </c>
+      <c r="EE7" s="1">
+        <v>0.10156999999999999</v>
+      </c>
+      <c r="EF7" s="1">
+        <v>0.95904199999999995</v>
+      </c>
+      <c r="EG7" s="1">
+        <v>2.39344</v>
+      </c>
+      <c r="EH7" s="1">
+        <v>5.1627029999999996</v>
+      </c>
+      <c r="EI7" s="1">
+        <v>16.016407000000001</v>
+      </c>
+      <c r="EJ7" s="1">
+        <v>24.631834999999999</v>
+      </c>
+      <c r="EK7" s="1">
+        <v>25.535819</v>
+      </c>
+      <c r="EL7" s="1">
+        <v>109.683638</v>
+      </c>
+      <c r="EN7" s="3">
+        <v>5</v>
+      </c>
+      <c r="EO7" s="3">
+        <v>1.7971000000000001E-2</v>
+      </c>
+      <c r="EP7" s="3">
+        <v>4.2684E-2</v>
+      </c>
+      <c r="EQ7" s="3">
+        <v>8.6384000000000002E-2</v>
+      </c>
+      <c r="ER7" s="3">
+        <v>0.112828</v>
+      </c>
+      <c r="ES7" s="3">
+        <v>1.0334239999999999</v>
+      </c>
+      <c r="ET7" s="3">
+        <v>2.1815600000000002</v>
+      </c>
+      <c r="EU7" s="3">
+        <v>4.735754</v>
+      </c>
+      <c r="EV7" s="3">
+        <v>14.767427</v>
+      </c>
+      <c r="EW7" s="3">
+        <v>22.582415000000001</v>
+      </c>
+      <c r="EX7" s="3">
+        <v>23.144812000000002</v>
+      </c>
+      <c r="EY7" s="3">
+        <v>98.677160000000001</v>
+      </c>
+      <c r="FA7" s="3">
+        <v>5</v>
+      </c>
+      <c r="FB7" s="3">
+        <v>1.7891000000000001E-2</v>
+      </c>
+      <c r="FC7" s="3">
+        <v>3.8156000000000002E-2</v>
+      </c>
+      <c r="FD7" s="3">
+        <v>4.6600999999999997E-2</v>
+      </c>
+      <c r="FE7" s="3">
+        <v>0.107158</v>
+      </c>
+      <c r="FF7" s="3">
+        <v>0.911269</v>
+      </c>
+      <c r="FG7" s="3">
+        <v>2.1516609999999998</v>
+      </c>
+      <c r="FH7" s="3">
+        <v>4.3831899999999999</v>
+      </c>
+      <c r="FI7" s="3">
+        <v>13.129353999999999</v>
+      </c>
+      <c r="FJ7" s="3">
+        <v>20.260536999999999</v>
+      </c>
+      <c r="FK7" s="3">
+        <v>21.106099</v>
+      </c>
+      <c r="FL7" s="3">
+        <v>90.136585999999994</v>
+      </c>
+      <c r="FN7" s="3">
+        <v>5</v>
+      </c>
+      <c r="FO7" s="3">
+        <v>1.9768999999999998E-2</v>
+      </c>
+      <c r="FP7" s="3">
+        <v>3.7581999999999997E-2</v>
+      </c>
+      <c r="FQ7" s="3">
+        <v>4.6933999999999997E-2</v>
+      </c>
+      <c r="FR7" s="3">
+        <v>0.105072</v>
+      </c>
+      <c r="FS7" s="3">
+        <v>1.167516</v>
+      </c>
+      <c r="FT7" s="3">
+        <v>2.5947830000000001</v>
+      </c>
+      <c r="FU7" s="3">
+        <v>4.676412</v>
+      </c>
+      <c r="FV7" s="3">
+        <v>12.284542</v>
+      </c>
+      <c r="FW7" s="3">
+        <v>18.770741000000001</v>
+      </c>
+      <c r="FX7" s="3">
+        <v>20.503229999999999</v>
+      </c>
+      <c r="FY7" s="3">
+        <v>84.766437999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5167,8 +6515,188 @@
       <c r="DL8" s="1">
         <v>155.9502</v>
       </c>
+      <c r="DN8" s="1">
+        <v>6</v>
+      </c>
+      <c r="DO8" s="1">
+        <v>1.2796999999999999E-2</v>
+      </c>
+      <c r="DP8" s="1">
+        <v>4.2569999999999997E-2</v>
+      </c>
+      <c r="DQ8" s="1">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="DR8" s="1">
+        <v>0.12779699999999999</v>
+      </c>
+      <c r="DS8" s="1">
+        <v>1.000184</v>
+      </c>
+      <c r="DT8" s="1">
+        <v>2.7211129999999999</v>
+      </c>
+      <c r="DU8" s="1">
+        <v>5.8475630000000001</v>
+      </c>
+      <c r="DV8" s="1">
+        <v>18.305377</v>
+      </c>
+      <c r="DW8" s="1">
+        <v>28.634202999999999</v>
+      </c>
+      <c r="DX8" s="1">
+        <v>29.182718000000001</v>
+      </c>
+      <c r="DY8" s="1">
+        <v>125.717647</v>
+      </c>
+      <c r="EA8" s="1">
+        <v>6</v>
+      </c>
+      <c r="EB8" s="1">
+        <v>1.5736E-2</v>
+      </c>
+      <c r="EC8" s="1">
+        <v>4.3742000000000003E-2</v>
+      </c>
+      <c r="ED8" s="1">
+        <v>5.3689000000000001E-2</v>
+      </c>
+      <c r="EE8" s="1">
+        <v>0.12715599999999999</v>
+      </c>
+      <c r="EF8" s="1">
+        <v>0.95081000000000004</v>
+      </c>
+      <c r="EG8" s="1">
+        <v>2.4321640000000002</v>
+      </c>
+      <c r="EH8" s="1">
+        <v>5.1083360000000004</v>
+      </c>
+      <c r="EI8" s="1">
+        <v>15.909383999999999</v>
+      </c>
+      <c r="EJ8" s="1">
+        <v>24.551456000000002</v>
+      </c>
+      <c r="EK8" s="1">
+        <v>25.510542000000001</v>
+      </c>
+      <c r="EL8" s="1">
+        <v>109.723544</v>
+      </c>
+      <c r="EN8" s="3">
+        <v>6</v>
+      </c>
+      <c r="EO8" s="3">
+        <v>1.7871000000000001E-2</v>
+      </c>
+      <c r="EP8" s="3">
+        <v>3.9539999999999999E-2</v>
+      </c>
+      <c r="EQ8" s="3">
+        <v>4.215E-2</v>
+      </c>
+      <c r="ER8" s="3">
+        <v>0.124654</v>
+      </c>
+      <c r="ES8" s="3">
+        <v>1.0048600000000001</v>
+      </c>
+      <c r="ET8" s="3">
+        <v>2.2657660000000002</v>
+      </c>
+      <c r="EU8" s="3">
+        <v>4.66127</v>
+      </c>
+      <c r="EV8" s="3">
+        <v>14.511161</v>
+      </c>
+      <c r="EW8" s="3">
+        <v>22.57283</v>
+      </c>
+      <c r="EX8" s="3">
+        <v>23.029917000000001</v>
+      </c>
+      <c r="EY8" s="3">
+        <v>98.731954000000002</v>
+      </c>
+      <c r="FA8" s="3">
+        <v>6</v>
+      </c>
+      <c r="FB8" s="3">
+        <v>3.2163999999999998E-2</v>
+      </c>
+      <c r="FC8" s="3">
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="FD8" s="3">
+        <v>5.1343E-2</v>
+      </c>
+      <c r="FE8" s="3">
+        <v>0.11934400000000001</v>
+      </c>
+      <c r="FF8" s="3">
+        <v>1.018648</v>
+      </c>
+      <c r="FG8" s="3">
+        <v>2.091135</v>
+      </c>
+      <c r="FH8" s="3">
+        <v>4.3387200000000004</v>
+      </c>
+      <c r="FI8" s="3">
+        <v>13.142143000000001</v>
+      </c>
+      <c r="FJ8" s="3">
+        <v>20.065536999999999</v>
+      </c>
+      <c r="FK8" s="3">
+        <v>21.137049000000001</v>
+      </c>
+      <c r="FL8" s="3">
+        <v>89.875377999999998</v>
+      </c>
+      <c r="FN8" s="3">
+        <v>6</v>
+      </c>
+      <c r="FO8" s="3">
+        <v>1.8644999999999998E-2</v>
+      </c>
+      <c r="FP8" s="3">
+        <v>3.7433000000000001E-2</v>
+      </c>
+      <c r="FQ8" s="3">
+        <v>4.7597E-2</v>
+      </c>
+      <c r="FR8" s="3">
+        <v>9.8146999999999998E-2</v>
+      </c>
+      <c r="FS8" s="3">
+        <v>1.02722</v>
+      </c>
+      <c r="FT8" s="3">
+        <v>2.5090569999999999</v>
+      </c>
+      <c r="FU8" s="3">
+        <v>4.3156759999999998</v>
+      </c>
+      <c r="FV8" s="3">
+        <v>12.431153</v>
+      </c>
+      <c r="FW8" s="3">
+        <v>18.901661000000001</v>
+      </c>
+      <c r="FX8" s="3">
+        <v>20.264195999999998</v>
+      </c>
+      <c r="FY8" s="3">
+        <v>83.934709999999995</v>
+      </c>
     </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5493,8 +7021,188 @@
       <c r="DL9" s="1">
         <v>156.08945199999999</v>
       </c>
+      <c r="DN9" s="1">
+        <v>7</v>
+      </c>
+      <c r="DO9" s="1">
+        <v>1.2729000000000001E-2</v>
+      </c>
+      <c r="DP9" s="1">
+        <v>3.8008E-2</v>
+      </c>
+      <c r="DQ9" s="1">
+        <v>5.4713999999999999E-2</v>
+      </c>
+      <c r="DR9" s="1">
+        <v>0.14735999999999999</v>
+      </c>
+      <c r="DS9" s="1">
+        <v>1.0091000000000001</v>
+      </c>
+      <c r="DT9" s="1">
+        <v>2.6913260000000001</v>
+      </c>
+      <c r="DU9" s="1">
+        <v>5.9191159999999998</v>
+      </c>
+      <c r="DV9" s="1">
+        <v>18.385311999999999</v>
+      </c>
+      <c r="DW9" s="1">
+        <v>28.422585999999999</v>
+      </c>
+      <c r="DX9" s="1">
+        <v>29.119195999999999</v>
+      </c>
+      <c r="DY9" s="1">
+        <v>126.152261</v>
+      </c>
+      <c r="EA9" s="1">
+        <v>7</v>
+      </c>
+      <c r="EB9" s="1">
+        <v>1.5991999999999999E-2</v>
+      </c>
+      <c r="EC9" s="1">
+        <v>4.1404999999999997E-2</v>
+      </c>
+      <c r="ED9" s="1">
+        <v>5.4080999999999997E-2</v>
+      </c>
+      <c r="EE9" s="1">
+        <v>0.103352</v>
+      </c>
+      <c r="EF9" s="1">
+        <v>0.93729200000000001</v>
+      </c>
+      <c r="EG9" s="1">
+        <v>2.435387</v>
+      </c>
+      <c r="EH9" s="1">
+        <v>5.0555310000000002</v>
+      </c>
+      <c r="EI9" s="1">
+        <v>15.877357</v>
+      </c>
+      <c r="EJ9" s="1">
+        <v>24.574434</v>
+      </c>
+      <c r="EK9" s="1">
+        <v>25.637913000000001</v>
+      </c>
+      <c r="EL9" s="1">
+        <v>109.65514</v>
+      </c>
+      <c r="EN9" s="3">
+        <v>7</v>
+      </c>
+      <c r="EO9" s="3">
+        <v>1.9726E-2</v>
+      </c>
+      <c r="EP9" s="3">
+        <v>4.0604000000000001E-2</v>
+      </c>
+      <c r="EQ9" s="3">
+        <v>5.0817000000000001E-2</v>
+      </c>
+      <c r="ER9" s="3">
+        <v>0.13361200000000001</v>
+      </c>
+      <c r="ES9" s="3">
+        <v>0.98529500000000003</v>
+      </c>
+      <c r="ET9" s="3">
+        <v>2.2173150000000001</v>
+      </c>
+      <c r="EU9" s="3">
+        <v>4.6834959999999999</v>
+      </c>
+      <c r="EV9" s="3">
+        <v>14.500391</v>
+      </c>
+      <c r="EW9" s="3">
+        <v>22.509252</v>
+      </c>
+      <c r="EX9" s="3">
+        <v>23.052264000000001</v>
+      </c>
+      <c r="EY9" s="3">
+        <v>98.851466000000002</v>
+      </c>
+      <c r="FA9" s="3">
+        <v>7</v>
+      </c>
+      <c r="FB9" s="3">
+        <v>1.6827000000000002E-2</v>
+      </c>
+      <c r="FC9" s="3">
+        <v>3.8464999999999999E-2</v>
+      </c>
+      <c r="FD9" s="3">
+        <v>0.14624400000000001</v>
+      </c>
+      <c r="FE9" s="3">
+        <v>0.110806</v>
+      </c>
+      <c r="FF9" s="3">
+        <v>0.95730099999999996</v>
+      </c>
+      <c r="FG9" s="3">
+        <v>2.039323</v>
+      </c>
+      <c r="FH9" s="3">
+        <v>4.3320670000000003</v>
+      </c>
+      <c r="FI9" s="3">
+        <v>13.061607</v>
+      </c>
+      <c r="FJ9" s="3">
+        <v>20.11439</v>
+      </c>
+      <c r="FK9" s="3">
+        <v>21.162835999999999</v>
+      </c>
+      <c r="FL9" s="3">
+        <v>90.108441999999997</v>
+      </c>
+      <c r="FN9" s="3">
+        <v>7</v>
+      </c>
+      <c r="FO9" s="3">
+        <v>1.8408000000000001E-2</v>
+      </c>
+      <c r="FP9" s="3">
+        <v>3.6441000000000001E-2</v>
+      </c>
+      <c r="FQ9" s="3">
+        <v>4.4766E-2</v>
+      </c>
+      <c r="FR9" s="3">
+        <v>9.8251000000000005E-2</v>
+      </c>
+      <c r="FS9" s="3">
+        <v>1.0552550000000001</v>
+      </c>
+      <c r="FT9" s="3">
+        <v>2.0884640000000001</v>
+      </c>
+      <c r="FU9" s="3">
+        <v>4.1882159999999997</v>
+      </c>
+      <c r="FV9" s="3">
+        <v>12.683771999999999</v>
+      </c>
+      <c r="FW9" s="3">
+        <v>18.883728999999999</v>
+      </c>
+      <c r="FX9" s="3">
+        <v>19.680250000000001</v>
+      </c>
+      <c r="FY9" s="3">
+        <v>84.087965999999994</v>
+      </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5819,8 +7527,188 @@
       <c r="DL10" s="1">
         <v>156.02357599999999</v>
       </c>
+      <c r="DN10" s="1">
+        <v>8</v>
+      </c>
+      <c r="DO10" s="1">
+        <v>1.4466E-2</v>
+      </c>
+      <c r="DP10" s="1">
+        <v>4.3531E-2</v>
+      </c>
+      <c r="DQ10" s="1">
+        <v>5.6583000000000001E-2</v>
+      </c>
+      <c r="DR10" s="1">
+        <v>0.115535</v>
+      </c>
+      <c r="DS10" s="1">
+        <v>1.016635</v>
+      </c>
+      <c r="DT10" s="1">
+        <v>2.7479490000000002</v>
+      </c>
+      <c r="DU10" s="1">
+        <v>5.8498219999999996</v>
+      </c>
+      <c r="DV10" s="1">
+        <v>18.366250000000001</v>
+      </c>
+      <c r="DW10" s="1">
+        <v>28.406663999999999</v>
+      </c>
+      <c r="DX10" s="1">
+        <v>29.092793</v>
+      </c>
+      <c r="DY10" s="1">
+        <v>125.38416100000001</v>
+      </c>
+      <c r="EA10" s="1">
+        <v>8</v>
+      </c>
+      <c r="EB10" s="1">
+        <v>1.8506999999999999E-2</v>
+      </c>
+      <c r="EC10" s="1">
+        <v>3.9824999999999999E-2</v>
+      </c>
+      <c r="ED10" s="1">
+        <v>5.8640999999999999E-2</v>
+      </c>
+      <c r="EE10" s="1">
+        <v>9.2206999999999997E-2</v>
+      </c>
+      <c r="EF10" s="1">
+        <v>0.95045999999999997</v>
+      </c>
+      <c r="EG10" s="1">
+        <v>2.4318430000000002</v>
+      </c>
+      <c r="EH10" s="1">
+        <v>5.2202099999999998</v>
+      </c>
+      <c r="EI10" s="1">
+        <v>15.981085999999999</v>
+      </c>
+      <c r="EJ10" s="1">
+        <v>24.629511999999998</v>
+      </c>
+      <c r="EK10" s="1">
+        <v>25.514500000000002</v>
+      </c>
+      <c r="EL10" s="1">
+        <v>109.74821799999999</v>
+      </c>
+      <c r="EN10" s="3">
+        <v>8</v>
+      </c>
+      <c r="EO10" s="3">
+        <v>1.9175000000000001E-2</v>
+      </c>
+      <c r="EP10" s="3">
+        <v>3.8903E-2</v>
+      </c>
+      <c r="EQ10" s="3">
+        <v>5.0427E-2</v>
+      </c>
+      <c r="ER10" s="3">
+        <v>0.117786</v>
+      </c>
+      <c r="ES10" s="3">
+        <v>0.83745599999999998</v>
+      </c>
+      <c r="ET10" s="3">
+        <v>2.2856179999999999</v>
+      </c>
+      <c r="EU10" s="3">
+        <v>4.7418930000000001</v>
+      </c>
+      <c r="EV10" s="3">
+        <v>14.523383000000001</v>
+      </c>
+      <c r="EW10" s="3">
+        <v>22.479875</v>
+      </c>
+      <c r="EX10" s="3">
+        <v>23.162032</v>
+      </c>
+      <c r="EY10" s="3">
+        <v>98.765201000000005</v>
+      </c>
+      <c r="FA10" s="3">
+        <v>8</v>
+      </c>
+      <c r="FB10" s="3">
+        <v>1.8194999999999999E-2</v>
+      </c>
+      <c r="FC10" s="3">
+        <v>3.7012999999999997E-2</v>
+      </c>
+      <c r="FD10" s="3">
+        <v>4.8291000000000001E-2</v>
+      </c>
+      <c r="FE10" s="3">
+        <v>0.107324</v>
+      </c>
+      <c r="FF10" s="3">
+        <v>0.89675700000000003</v>
+      </c>
+      <c r="FG10" s="3">
+        <v>2.0922610000000001</v>
+      </c>
+      <c r="FH10" s="3">
+        <v>4.3035629999999996</v>
+      </c>
+      <c r="FI10" s="3">
+        <v>13.178004</v>
+      </c>
+      <c r="FJ10" s="3">
+        <v>20.237390000000001</v>
+      </c>
+      <c r="FK10" s="3">
+        <v>21.160371000000001</v>
+      </c>
+      <c r="FL10" s="3">
+        <v>90.217511999999999</v>
+      </c>
+      <c r="FN10" s="3">
+        <v>8</v>
+      </c>
+      <c r="FO10" s="3">
+        <v>1.8547999999999999E-2</v>
+      </c>
+      <c r="FP10" s="3">
+        <v>4.0744000000000002E-2</v>
+      </c>
+      <c r="FQ10" s="3">
+        <v>4.4719000000000002E-2</v>
+      </c>
+      <c r="FR10" s="3">
+        <v>9.7901000000000002E-2</v>
+      </c>
+      <c r="FS10" s="3">
+        <v>1.0505070000000001</v>
+      </c>
+      <c r="FT10" s="3">
+        <v>2.1857440000000001</v>
+      </c>
+      <c r="FU10" s="3">
+        <v>4.0529789999999997</v>
+      </c>
+      <c r="FV10" s="3">
+        <v>12.123096</v>
+      </c>
+      <c r="FW10" s="3">
+        <v>19.080500000000001</v>
+      </c>
+      <c r="FX10" s="3">
+        <v>19.790566999999999</v>
+      </c>
+      <c r="FY10" s="3">
+        <v>84.153880999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5848,8 +7736,56 @@
       <c r="DA11" s="1">
         <v>9</v>
       </c>
+      <c r="DN11" s="1">
+        <v>9</v>
+      </c>
+      <c r="EA11" s="1">
+        <v>9</v>
+      </c>
+      <c r="EN11" s="3">
+        <v>9</v>
+      </c>
+      <c r="EO11" s="3"/>
+      <c r="EP11" s="3"/>
+      <c r="EQ11" s="3"/>
+      <c r="ER11" s="3"/>
+      <c r="ES11" s="3"/>
+      <c r="ET11" s="3"/>
+      <c r="EU11" s="3"/>
+      <c r="EV11" s="3"/>
+      <c r="EW11" s="3"/>
+      <c r="EX11" s="3"/>
+      <c r="EY11" s="3"/>
+      <c r="FA11" s="3">
+        <v>9</v>
+      </c>
+      <c r="FB11" s="3"/>
+      <c r="FC11" s="3"/>
+      <c r="FD11" s="3"/>
+      <c r="FE11" s="3"/>
+      <c r="FF11" s="3"/>
+      <c r="FG11" s="3"/>
+      <c r="FH11" s="3"/>
+      <c r="FI11" s="3"/>
+      <c r="FJ11" s="3"/>
+      <c r="FK11" s="3"/>
+      <c r="FL11" s="3"/>
+      <c r="FN11" s="3">
+        <v>9</v>
+      </c>
+      <c r="FO11" s="3"/>
+      <c r="FP11" s="3"/>
+      <c r="FQ11" s="3"/>
+      <c r="FR11" s="3"/>
+      <c r="FS11" s="3"/>
+      <c r="FT11" s="3"/>
+      <c r="FU11" s="3"/>
+      <c r="FV11" s="3"/>
+      <c r="FW11" s="3"/>
+      <c r="FX11" s="3"/>
+      <c r="FY11" s="3"/>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5877,8 +7813,94 @@
       <c r="DA12" s="1">
         <v>10</v>
       </c>
+      <c r="DN12" s="1">
+        <v>10</v>
+      </c>
+      <c r="EA12" s="1">
+        <v>10</v>
+      </c>
+      <c r="EN12" s="3">
+        <v>10</v>
+      </c>
+      <c r="EO12" s="3"/>
+      <c r="EP12" s="3"/>
+      <c r="EQ12" s="3"/>
+      <c r="ER12" s="3"/>
+      <c r="ES12" s="3"/>
+      <c r="ET12" s="3"/>
+      <c r="EU12" s="3"/>
+      <c r="EV12" s="3"/>
+      <c r="EW12" s="3"/>
+      <c r="EX12" s="3"/>
+      <c r="EY12" s="3"/>
+      <c r="FA12" s="3">
+        <v>10</v>
+      </c>
+      <c r="FB12" s="3"/>
+      <c r="FC12" s="3"/>
+      <c r="FD12" s="3"/>
+      <c r="FE12" s="3"/>
+      <c r="FF12" s="3"/>
+      <c r="FG12" s="3"/>
+      <c r="FH12" s="3"/>
+      <c r="FI12" s="3"/>
+      <c r="FJ12" s="3"/>
+      <c r="FK12" s="3"/>
+      <c r="FL12" s="3"/>
+      <c r="FN12" s="3">
+        <v>10</v>
+      </c>
+      <c r="FO12" s="3"/>
+      <c r="FP12" s="3"/>
+      <c r="FQ12" s="3"/>
+      <c r="FR12" s="3"/>
+      <c r="FS12" s="3"/>
+      <c r="FT12" s="3"/>
+      <c r="FU12" s="3"/>
+      <c r="FV12" s="3"/>
+      <c r="FW12" s="3"/>
+      <c r="FX12" s="3"/>
+      <c r="FY12" s="3"/>
     </row>
-    <row r="14" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="EN13" s="3"/>
+      <c r="EO13" s="3"/>
+      <c r="EP13" s="3"/>
+      <c r="EQ13" s="3"/>
+      <c r="ER13" s="3"/>
+      <c r="ES13" s="3"/>
+      <c r="ET13" s="3"/>
+      <c r="EU13" s="3"/>
+      <c r="EV13" s="3"/>
+      <c r="EW13" s="3"/>
+      <c r="EX13" s="3"/>
+      <c r="EY13" s="3"/>
+      <c r="FA13" s="3"/>
+      <c r="FB13" s="3"/>
+      <c r="FC13" s="3"/>
+      <c r="FD13" s="3"/>
+      <c r="FE13" s="3"/>
+      <c r="FF13" s="3"/>
+      <c r="FG13" s="3"/>
+      <c r="FH13" s="3"/>
+      <c r="FI13" s="3"/>
+      <c r="FJ13" s="3"/>
+      <c r="FK13" s="3"/>
+      <c r="FL13" s="3"/>
+      <c r="FN13" s="3"/>
+      <c r="FO13" s="3"/>
+      <c r="FP13" s="3"/>
+      <c r="FQ13" s="3"/>
+      <c r="FR13" s="3"/>
+      <c r="FS13" s="3"/>
+      <c r="FT13" s="3"/>
+      <c r="FU13" s="3"/>
+      <c r="FV13" s="3"/>
+      <c r="FW13" s="3"/>
+      <c r="FX13" s="3"/>
+      <c r="FY13" s="3"/>
+    </row>
+    <row r="14" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -6302,53 +8324,288 @@
         <f t="shared" si="8"/>
         <v>156.11605075</v>
       </c>
+      <c r="DN14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO14" s="1">
+        <f t="shared" ref="DO14:DY14" si="9">AVERAGE(DO3:DO12)</f>
+        <v>1.3449875E-2</v>
+      </c>
+      <c r="DP14" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2651874999999999E-2</v>
+      </c>
+      <c r="DQ14" s="1">
+        <f t="shared" si="9"/>
+        <v>6.0196499999999993E-2</v>
+      </c>
+      <c r="DR14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.12996049999999998</v>
+      </c>
+      <c r="DS14" s="1">
+        <f t="shared" si="9"/>
+        <v>1.0375135</v>
+      </c>
+      <c r="DT14" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7121911250000004</v>
+      </c>
+      <c r="DU14" s="1">
+        <f t="shared" si="9"/>
+        <v>5.8494913749999995</v>
+      </c>
+      <c r="DV14" s="1">
+        <f t="shared" si="9"/>
+        <v>18.358383125</v>
+      </c>
+      <c r="DW14" s="1">
+        <f t="shared" si="9"/>
+        <v>28.448731875</v>
+      </c>
+      <c r="DX14" s="1">
+        <f t="shared" si="9"/>
+        <v>29.244358624999997</v>
+      </c>
+      <c r="DY14" s="1">
+        <f t="shared" si="9"/>
+        <v>125.74990162499998</v>
+      </c>
+      <c r="EA14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EB14" s="1">
+        <f t="shared" ref="EB14:EL14" si="10">AVERAGE(EB3:EB12)</f>
+        <v>1.8642124999999999E-2</v>
+      </c>
+      <c r="EC14" s="1">
+        <f t="shared" si="10"/>
+        <v>3.9034874999999997E-2</v>
+      </c>
+      <c r="ED14" s="1">
+        <f t="shared" si="10"/>
+        <v>5.3727999999999998E-2</v>
+      </c>
+      <c r="EE14" s="1">
+        <f t="shared" si="10"/>
+        <v>0.112067375</v>
+      </c>
+      <c r="EF14" s="1">
+        <f t="shared" si="10"/>
+        <v>0.95010574999999997</v>
+      </c>
+      <c r="EG14" s="1">
+        <f t="shared" si="10"/>
+        <v>2.4214881250000002</v>
+      </c>
+      <c r="EH14" s="1">
+        <f t="shared" si="10"/>
+        <v>5.1270925000000007</v>
+      </c>
+      <c r="EI14" s="1">
+        <f t="shared" si="10"/>
+        <v>15.961276125000001</v>
+      </c>
+      <c r="EJ14" s="1">
+        <f t="shared" si="10"/>
+        <v>24.579624499999998</v>
+      </c>
+      <c r="EK14" s="1">
+        <f t="shared" si="10"/>
+        <v>25.566312249999999</v>
+      </c>
+      <c r="EL14" s="1">
+        <f t="shared" si="10"/>
+        <v>109.722199</v>
+      </c>
+      <c r="EN14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="EO14" s="1">
+        <f t="shared" ref="EO14:EY14" si="11">AVERAGE(EO3:EO12)</f>
+        <v>1.7884625000000001E-2</v>
+      </c>
+      <c r="EP14" s="1">
+        <f t="shared" si="11"/>
+        <v>4.0053499999999999E-2</v>
+      </c>
+      <c r="EQ14" s="1">
+        <f t="shared" si="11"/>
+        <v>5.3257250000000006E-2</v>
+      </c>
+      <c r="ER14" s="1">
+        <f t="shared" si="11"/>
+        <v>0.11920887499999999</v>
+      </c>
+      <c r="ES14" s="1">
+        <f t="shared" si="11"/>
+        <v>0.93615049999999989</v>
+      </c>
+      <c r="ET14" s="1">
+        <f t="shared" si="11"/>
+        <v>2.26413025</v>
+      </c>
+      <c r="EU14" s="1">
+        <f t="shared" si="11"/>
+        <v>4.7172013749999993</v>
+      </c>
+      <c r="EV14" s="1">
+        <f t="shared" si="11"/>
+        <v>14.561835875</v>
+      </c>
+      <c r="EW14" s="1">
+        <f t="shared" si="11"/>
+        <v>22.477470874999998</v>
+      </c>
+      <c r="EX14" s="1">
+        <f t="shared" si="11"/>
+        <v>23.070988375000002</v>
+      </c>
+      <c r="EY14" s="1">
+        <f t="shared" si="11"/>
+        <v>98.714513374999996</v>
+      </c>
+      <c r="FA14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="FB14" s="1">
+        <f t="shared" ref="FB14:FL14" si="12">AVERAGE(FB3:FB12)</f>
+        <v>1.9578125000000002E-2</v>
+      </c>
+      <c r="FC14" s="1">
+        <f t="shared" si="12"/>
+        <v>3.8075749999999998E-2</v>
+      </c>
+      <c r="FD14" s="1">
+        <f t="shared" si="12"/>
+        <v>6.0934000000000002E-2</v>
+      </c>
+      <c r="FE14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.10988374999999999</v>
+      </c>
+      <c r="FF14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.93829987500000001</v>
+      </c>
+      <c r="FG14" s="1">
+        <f t="shared" si="12"/>
+        <v>2.1134221249999996</v>
+      </c>
+      <c r="FH14" s="1">
+        <f t="shared" si="12"/>
+        <v>4.3471856249999998</v>
+      </c>
+      <c r="FI14" s="1">
+        <f t="shared" si="12"/>
+        <v>13.12632675</v>
+      </c>
+      <c r="FJ14" s="1">
+        <f t="shared" si="12"/>
+        <v>20.172024</v>
+      </c>
+      <c r="FK14" s="1">
+        <f t="shared" si="12"/>
+        <v>21.129880249999999</v>
+      </c>
+      <c r="FL14" s="1">
+        <f t="shared" si="12"/>
+        <v>90.066094249999992</v>
+      </c>
+      <c r="FN14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="FO14" s="1">
+        <f>AVERAGE(FO3:FO12)</f>
+        <v>1.91565E-2</v>
+      </c>
+      <c r="FP14" s="1">
+        <f t="shared" ref="FO14:FY14" si="13">AVERAGE(FP3:FP12)</f>
+        <v>3.8328124999999998E-2</v>
+      </c>
+      <c r="FQ14" s="1">
+        <f t="shared" si="13"/>
+        <v>4.6095624999999994E-2</v>
+      </c>
+      <c r="FR14" s="1">
+        <f t="shared" si="13"/>
+        <v>9.9632499999999999E-2</v>
+      </c>
+      <c r="FS14" s="1">
+        <f t="shared" si="13"/>
+        <v>1.012183625</v>
+      </c>
+      <c r="FT14" s="1">
+        <f t="shared" si="13"/>
+        <v>2.2464166250000002</v>
+      </c>
+      <c r="FU14" s="1">
+        <f t="shared" si="13"/>
+        <v>4.2118864999999994</v>
+      </c>
+      <c r="FV14" s="1">
+        <f t="shared" si="13"/>
+        <v>12.319629875</v>
+      </c>
+      <c r="FW14" s="1">
+        <f t="shared" si="13"/>
+        <v>18.968777124999999</v>
+      </c>
+      <c r="FX14" s="1">
+        <f t="shared" si="13"/>
+        <v>19.975229250000002</v>
+      </c>
+      <c r="FY14" s="1">
+        <f t="shared" si="13"/>
+        <v>84.019209374999988</v>
+      </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:181" x14ac:dyDescent="0.2">
       <c r="N15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O15" s="1">
-        <f>B14/O14</f>
+        <f>B$14/O$14</f>
         <v>1.2240100030228918</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" ref="P15:Y15" si="9">C14/P14</f>
+        <f t="shared" ref="P15:Y15" si="14">C$14/P$14</f>
         <v>1.0295977535790095</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.030736098061102</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.99619508686938207</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.94657375254700049</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.94969487300775846</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.95061839782004476</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.95172415953319911</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.95337972438899243</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.95301309681828328</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.95324157169309975</v>
       </c>
       <c r="AA15" s="1" t="s">
@@ -6359,43 +8616,43 @@
         <v>1.7875098449390743</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" ref="AC15:AL15" si="10">C14/AC14</f>
+        <f t="shared" ref="AC15:AL15" si="15">C14/AC14</f>
         <v>1.8613454617616614</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8606905148937669</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8618339180000616</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8412833273196954</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8715615291641294</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8722262709021453</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8788805220164198</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8815864755175928</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8791921612970024</v>
       </c>
       <c r="AL15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8805392295099488</v>
       </c>
       <c r="AN15" s="1" t="s">
@@ -6406,43 +8663,43 @@
         <v>2.2885292228644829</v>
       </c>
       <c r="AP15" s="1">
-        <f t="shared" ref="AP15:AY15" si="11">C14/AP14</f>
+        <f t="shared" ref="AP15:AY15" si="16">C14/AP14</f>
         <v>2.3122487969738206</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.2947094823902501</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.5981957403553859</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.7648141407236415</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.8484858722040607</v>
       </c>
       <c r="AU15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.871824623094847</v>
       </c>
       <c r="AV15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.8881822051504766</v>
       </c>
       <c r="AW15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.8984178028356058</v>
       </c>
       <c r="AX15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.8986121163822296</v>
       </c>
       <c r="AY15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.901335754302965</v>
       </c>
       <c r="BA15" s="1" t="s">
@@ -6453,43 +8710,43 @@
         <v>2.6119439089289775</v>
       </c>
       <c r="BC15" s="1">
-        <f t="shared" ref="BC15:BL15" si="12">C14/BC14</f>
+        <f t="shared" ref="BC15:BL15" si="17">C14/BC14</f>
         <v>2.8020007024257914</v>
       </c>
       <c r="BD15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2.8364076052399154</v>
       </c>
       <c r="BE15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.1044235974849972</v>
       </c>
       <c r="BF15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.5369959377223505</v>
       </c>
       <c r="BG15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.6736826131230114</v>
       </c>
       <c r="BH15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.7448729762858108</v>
       </c>
       <c r="BI15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.7735522389613232</v>
       </c>
       <c r="BJ15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.7849539739232947</v>
       </c>
       <c r="BK15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.7807138140659347</v>
       </c>
       <c r="BL15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.7851722010260422</v>
       </c>
       <c r="BN15" s="1" t="s">
@@ -6500,43 +8757,43 @@
         <v>2.685609629255572</v>
       </c>
       <c r="BP15" s="1">
-        <f t="shared" ref="BP15:BY15" si="13">C14/BP14</f>
+        <f t="shared" ref="BP15:BY15" si="18">C14/BP14</f>
         <v>3.2764143595553352</v>
       </c>
       <c r="BQ15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.3026923265896695</v>
       </c>
       <c r="BR15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.7418881490223104</v>
       </c>
       <c r="BS15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.2640087454588329</v>
       </c>
       <c r="BT15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.4089937249061046</v>
       </c>
       <c r="BU15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.4425014248597847</v>
       </c>
       <c r="BV15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.4746687249470698</v>
       </c>
       <c r="BW15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.4892103403717218</v>
       </c>
       <c r="BX15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.4890937396179087</v>
       </c>
       <c r="BY15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.492880840799983</v>
       </c>
       <c r="CA15" s="1" t="s">
@@ -6547,43 +8804,43 @@
         <v>2.8048836165841449</v>
       </c>
       <c r="CC15" s="1">
-        <f t="shared" ref="CC15:CL15" si="14">C14/CC14</f>
+        <f t="shared" ref="CC15:CL15" si="19">C14/CC14</f>
         <v>3.4591141057331942</v>
       </c>
       <c r="CD15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.4441136613798307</v>
       </c>
       <c r="CE15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.3518879319483572</v>
       </c>
       <c r="CF15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.0051233312501813</v>
       </c>
       <c r="CG15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.2572092035205014</v>
       </c>
       <c r="CH15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.3100558164504612</v>
       </c>
       <c r="CI15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.364603249841001</v>
       </c>
       <c r="CJ15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.3819940317509323</v>
       </c>
       <c r="CK15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.3829679854593886</v>
       </c>
       <c r="CL15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.3917876147739072</v>
       </c>
       <c r="CN15" s="1" t="s">
@@ -6594,43 +8851,43 @@
         <v>2.8879037160108605</v>
       </c>
       <c r="CP15" s="1">
-        <f t="shared" ref="CP15:CY15" si="15">C14/CP14</f>
+        <f t="shared" ref="CP15:CY15" si="20">C14/CP14</f>
         <v>3.7359858546549649</v>
       </c>
       <c r="CQ15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.9246026792724811</v>
       </c>
       <c r="CR15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.6568768406949665</v>
       </c>
       <c r="CS15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.7246666726761282</v>
       </c>
       <c r="CT15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.0573147907586318</v>
       </c>
       <c r="CU15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.1497002684830679</v>
       </c>
       <c r="CV15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.2395780937384826</v>
       </c>
       <c r="CW15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.2638678470647067</v>
       </c>
       <c r="CX15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.2722498658551258</v>
       </c>
       <c r="CY15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.2842853089283972</v>
       </c>
       <c r="DA15" s="1" t="s">
@@ -6641,460 +8898,355 @@
         <v>3.1963042698241839</v>
       </c>
       <c r="DC15" s="1">
-        <f t="shared" ref="DC15:DL15" si="16">C14/DC14</f>
+        <f t="shared" ref="DC15:DL15" si="21">C14/DC14</f>
         <v>4.0386001763016797</v>
       </c>
       <c r="DD15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.1113032694570864</v>
       </c>
       <c r="DE15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.95951825710039</v>
       </c>
       <c r="DF15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.4626546373768052</v>
       </c>
       <c r="DG15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.788899494753136</v>
       </c>
       <c r="DH15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.9967416962825286</v>
       </c>
       <c r="DI15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.112592413871984</v>
       </c>
       <c r="DJ15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.1465471350745853</v>
       </c>
       <c r="DK15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.1557538884240355</v>
       </c>
       <c r="DL15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.1792240835620813</v>
       </c>
+      <c r="DN15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DO15" s="1">
+        <f>B14/DO14</f>
+        <v>3.3115921151683567</v>
+      </c>
+      <c r="DP15" s="1">
+        <f t="shared" ref="DP15:DY15" si="22">C14/DP14</f>
+        <v>4.0683557287926968</v>
+      </c>
+      <c r="DQ15" s="1">
+        <f t="shared" si="22"/>
+        <v>4.0479056091300993</v>
+      </c>
+      <c r="DR15" s="1">
+        <f t="shared" si="22"/>
+        <v>5.212015381596717</v>
+      </c>
+      <c r="DS15" s="1">
+        <f t="shared" si="22"/>
+        <v>7.49835086483212</v>
+      </c>
+      <c r="DT15" s="1">
+        <f t="shared" si="22"/>
+        <v>8.2384376580393077</v>
+      </c>
+      <c r="DU15" s="1">
+        <f t="shared" si="22"/>
+        <v>8.5405248802508051</v>
+      </c>
+      <c r="DV15" s="1">
+        <f t="shared" si="22"/>
+        <v>8.7779770025362733</v>
+      </c>
+      <c r="DW15" s="1">
+        <f t="shared" si="22"/>
+        <v>8.8305148048009432</v>
+      </c>
+      <c r="DX15" s="1">
+        <f t="shared" si="22"/>
+        <v>8.8726568669960013</v>
+      </c>
+      <c r="DY15" s="1">
+        <f t="shared" si="22"/>
+        <v>8.9128667051949293</v>
+      </c>
+      <c r="EA15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EB15" s="1">
+        <f>B14/EB14</f>
+        <v>2.3892394241536308</v>
+      </c>
+      <c r="EC15" s="1">
+        <f t="shared" ref="EC15:EL15" si="23">C14/EC14</f>
+        <v>4.4453325391717025</v>
+      </c>
+      <c r="ED15" s="1">
+        <f t="shared" si="23"/>
+        <v>4.535246984812388</v>
+      </c>
+      <c r="EE15" s="1">
+        <f t="shared" si="23"/>
+        <v>6.0441865886481239</v>
+      </c>
+      <c r="EF15" s="1">
+        <f t="shared" si="23"/>
+        <v>8.1881835258864601</v>
+      </c>
+      <c r="EG15" s="1">
+        <f t="shared" si="23"/>
+        <v>9.2274734983472193</v>
+      </c>
+      <c r="EH15" s="1">
+        <f t="shared" si="23"/>
+        <v>9.7438707464318206</v>
+      </c>
+      <c r="EI15" s="1">
+        <f t="shared" si="23"/>
+        <v>10.096276990195857</v>
+      </c>
+      <c r="EJ15" s="1">
+        <f t="shared" si="23"/>
+        <v>10.220536444728845</v>
+      </c>
+      <c r="EK15" s="1">
+        <f t="shared" si="23"/>
+        <v>10.149103900387511</v>
+      </c>
+      <c r="EL15" s="1">
+        <f t="shared" si="23"/>
+        <v>10.214816341540876</v>
+      </c>
+      <c r="EN15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="EO15" s="1">
+        <f>B14/EO14</f>
+        <v>2.4904352201961184</v>
+      </c>
+      <c r="EP15" s="1">
+        <f t="shared" ref="EP15:EY15" si="24">C14/EP14</f>
+        <v>4.3322805747312962</v>
+      </c>
+      <c r="EQ15" s="1">
+        <f t="shared" si="24"/>
+        <v>4.5753348135699827</v>
+      </c>
+      <c r="ER15" s="1">
+        <f t="shared" si="24"/>
+        <v>5.6820947685312859</v>
+      </c>
+      <c r="ES15" s="1">
+        <f t="shared" si="24"/>
+        <v>8.310245254368823</v>
+      </c>
+      <c r="ET15" s="1">
+        <f t="shared" si="24"/>
+        <v>9.8687862590944135</v>
+      </c>
+      <c r="EU15" s="1">
+        <f t="shared" si="24"/>
+        <v>10.590543556135549</v>
+      </c>
+      <c r="EV15" s="1">
+        <f t="shared" si="24"/>
+        <v>11.066562366058806</v>
+      </c>
+      <c r="EW15" s="1">
+        <f t="shared" si="24"/>
+        <v>11.176388544647597</v>
+      </c>
+      <c r="EX15" s="1">
+        <f t="shared" si="24"/>
+        <v>11.246815921253306</v>
+      </c>
+      <c r="EY15" s="1">
+        <f t="shared" si="24"/>
+        <v>11.353873640822171</v>
+      </c>
+      <c r="FA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="FB15" s="1">
+        <f>B14/FB14</f>
+        <v>2.2750135674381484</v>
+      </c>
+      <c r="FC15" s="1">
+        <f t="shared" ref="FC15:FL15" si="25">C14/FC14</f>
+        <v>4.5573100989474922</v>
+      </c>
+      <c r="FD15" s="1">
+        <f t="shared" si="25"/>
+        <v>3.9989127580661039</v>
+      </c>
+      <c r="FE15" s="1">
+        <f t="shared" si="25"/>
+        <v>6.1642974962175936</v>
+      </c>
+      <c r="FF15" s="1">
+        <f t="shared" si="25"/>
+        <v>8.2912088739221037</v>
+      </c>
+      <c r="FG15" s="1">
+        <f t="shared" si="25"/>
+        <v>10.572529375786678</v>
+      </c>
+      <c r="FH15" s="1">
+        <f t="shared" si="25"/>
+        <v>11.491969962750325</v>
+      </c>
+      <c r="FI15" s="1">
+        <f t="shared" si="25"/>
+        <v>12.276813456209293</v>
+      </c>
+      <c r="FJ15" s="1">
+        <f t="shared" si="25"/>
+        <v>12.453730374304532</v>
+      </c>
+      <c r="FK15" s="1">
+        <f t="shared" si="25"/>
+        <v>12.280010880563319</v>
+      </c>
+      <c r="FL15" s="1">
+        <f t="shared" si="25"/>
+        <v>12.444106971753138</v>
+      </c>
+      <c r="FN15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO15" s="1">
+        <f>B14/FO14</f>
+        <v>2.32508548012424</v>
+      </c>
+      <c r="FP15" s="1">
+        <f t="shared" ref="FP15:FY15" si="26">C14/FP14</f>
+        <v>4.5273020790868319</v>
+      </c>
+      <c r="FQ15" s="1">
+        <f t="shared" si="26"/>
+        <v>5.2861795452388378</v>
+      </c>
+      <c r="FR15" s="1">
+        <f t="shared" si="26"/>
+        <v>6.7985459062053044</v>
+      </c>
+      <c r="FS15" s="1">
+        <f t="shared" si="26"/>
+        <v>7.6859969454653045</v>
+      </c>
+      <c r="FT15" s="1">
+        <f t="shared" si="26"/>
+        <v>9.9466044060282002</v>
+      </c>
+      <c r="FU15" s="1">
+        <f t="shared" si="26"/>
+        <v>11.86112841003669</v>
+      </c>
+      <c r="FV15" s="1">
+        <f t="shared" si="26"/>
+        <v>13.080706686003422</v>
+      </c>
+      <c r="FW15" s="1">
+        <f t="shared" si="26"/>
+        <v>13.243708139145529</v>
+      </c>
+      <c r="FX15" s="1">
+        <f t="shared" si="26"/>
+        <v>12.989846380611624</v>
+      </c>
+      <c r="FY15" s="1">
+        <f t="shared" si="26"/>
+        <v>13.339712664667053</v>
+      </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="N16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="1">
-        <f>1-O15</f>
-        <v>-0.22401000302289176</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" ref="P16:Y16" si="17">1-P15</f>
-        <v>-2.9597753579009511E-2</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="17"/>
-        <v>-3.0736098061102002E-2</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="17"/>
-        <v>3.8049131306179262E-3</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="17"/>
-        <v>5.3426247452999509E-2</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="17"/>
-        <v>5.0305126992241544E-2</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" si="17"/>
-        <v>4.9381602179955242E-2</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="17"/>
-        <v>4.827584046680089E-2</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="17"/>
-        <v>4.6620275611007567E-2</v>
-      </c>
-      <c r="X16" s="1">
-        <f t="shared" si="17"/>
-        <v>4.6986903181716722E-2</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="17"/>
-        <v>4.6758428306900246E-2</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB16" s="1">
-        <f>2-AB15</f>
-        <v>0.21249015506092572</v>
-      </c>
-      <c r="AC16" s="1">
-        <f t="shared" ref="AC16:AL16" si="18">2-AC15</f>
-        <v>0.13865453823833862</v>
-      </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.13930948510623309</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.13816608199993841</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.15871667268030465</v>
-      </c>
-      <c r="AG16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.12843847083587057</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.12777372909785467</v>
-      </c>
-      <c r="AI16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.12111947798358025</v>
-      </c>
-      <c r="AJ16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.11841352448240716</v>
-      </c>
-      <c r="AK16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.12080783870299761</v>
-      </c>
-      <c r="AL16" s="1">
-        <f t="shared" si="18"/>
-        <v>0.11946077049005122</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO16" s="1">
-        <f>3-AO15</f>
-        <v>0.7114707771355171</v>
-      </c>
-      <c r="AP16" s="1">
-        <f t="shared" ref="AP16:AY16" si="19">3-AP15</f>
-        <v>0.68775120302617943</v>
-      </c>
-      <c r="AQ16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.70529051760974992</v>
-      </c>
-      <c r="AR16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.40180425964461408</v>
-      </c>
-      <c r="AS16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.23518585927635849</v>
-      </c>
-      <c r="AT16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.15151412779593931</v>
-      </c>
-      <c r="AU16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.12817537690515302</v>
-      </c>
-      <c r="AV16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.11181779484952337</v>
-      </c>
-      <c r="AW16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.10158219716439421</v>
-      </c>
-      <c r="AX16" s="1">
-        <f t="shared" si="19"/>
-        <v>0.1013878836177704</v>
-      </c>
-      <c r="AY16" s="1">
-        <f t="shared" si="19"/>
-        <v>9.8664245697035025E-2</v>
-      </c>
-      <c r="BA16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB16" s="1">
-        <f>4-BB15</f>
-        <v>1.3880560910710225</v>
-      </c>
-      <c r="BC16" s="1">
-        <f t="shared" ref="BC16:BL16" si="20">4-BC15</f>
-        <v>1.1979992975742086</v>
-      </c>
-      <c r="BD16" s="1">
-        <f t="shared" si="20"/>
-        <v>1.1635923947600846</v>
-      </c>
-      <c r="BE16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.89557640251500281</v>
-      </c>
-      <c r="BF16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.46300406227764945</v>
-      </c>
-      <c r="BG16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.32631738687698864</v>
-      </c>
-      <c r="BH16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.25512702371418916</v>
-      </c>
-      <c r="BI16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.22644776103867681</v>
-      </c>
-      <c r="BJ16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.21504602607670531</v>
-      </c>
-      <c r="BK16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.21928618593406535</v>
-      </c>
-      <c r="BL16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.21482779897395776</v>
-      </c>
-      <c r="BN16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BO16" s="1">
-        <f>5-BO15</f>
-        <v>2.314390370744428</v>
-      </c>
-      <c r="BP16" s="1">
-        <f t="shared" ref="BP16:BY16" si="21">5-BP15</f>
-        <v>1.7235856404446648</v>
-      </c>
-      <c r="BQ16" s="1">
-        <f t="shared" si="21"/>
-        <v>1.6973076734103305</v>
-      </c>
-      <c r="BR16" s="1">
-        <f t="shared" si="21"/>
-        <v>1.2581118509776896</v>
-      </c>
-      <c r="BS16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.73599125454116709</v>
-      </c>
-      <c r="BT16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.59100627509389536</v>
-      </c>
-      <c r="BU16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.55749857514021528</v>
-      </c>
-      <c r="BV16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.5253312750529302</v>
-      </c>
-      <c r="BW16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.51078965962827816</v>
-      </c>
-      <c r="BX16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.5109062603820913</v>
-      </c>
-      <c r="BY16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.50711915920001704</v>
-      </c>
-      <c r="CA16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CB16" s="1">
-        <f>6-CB15</f>
-        <v>3.1951163834158551</v>
-      </c>
-      <c r="CC16" s="1">
-        <f t="shared" ref="CC16:CL16" si="22">6-CC15</f>
-        <v>2.5408858942668058</v>
-      </c>
-      <c r="CD16" s="1">
-        <f t="shared" si="22"/>
-        <v>2.5558863386201693</v>
-      </c>
-      <c r="CE16" s="1">
-        <f t="shared" si="22"/>
-        <v>1.6481120680516428</v>
-      </c>
-      <c r="CF16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.99487666874981873</v>
-      </c>
-      <c r="CG16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.74279079647949864</v>
-      </c>
-      <c r="CH16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.68994418354953879</v>
-      </c>
-      <c r="CI16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.63539675015899899</v>
-      </c>
-      <c r="CJ16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.61800596824906773</v>
-      </c>
-      <c r="CK16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.61703201454061141</v>
-      </c>
-      <c r="CL16" s="1">
-        <f t="shared" si="22"/>
-        <v>0.60821238522609278</v>
-      </c>
-      <c r="CN16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CO16" s="1">
-        <f>7-CO15</f>
-        <v>4.1120962839891391</v>
-      </c>
-      <c r="CP16" s="1">
-        <f t="shared" ref="CP16:CY16" si="23">7-CP15</f>
-        <v>3.2640141453450351</v>
-      </c>
-      <c r="CQ16" s="1">
-        <f t="shared" si="23"/>
-        <v>3.0753973207275189</v>
-      </c>
-      <c r="CR16" s="1">
-        <f t="shared" si="23"/>
-        <v>2.3431231593050335</v>
-      </c>
-      <c r="CS16" s="1">
-        <f t="shared" si="23"/>
-        <v>1.2753333273238718</v>
-      </c>
-      <c r="CT16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.94268520924136823</v>
-      </c>
-      <c r="CU16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.85029973151693206</v>
-      </c>
-      <c r="CV16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.7604219062615174</v>
-      </c>
-      <c r="CW16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.73613215293529333</v>
-      </c>
-      <c r="CX16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.72775013414487422</v>
-      </c>
-      <c r="CY16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.71571469107160279</v>
-      </c>
-      <c r="DA16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="DB16" s="1">
-        <f>8-DB15</f>
-        <v>4.8036957301758161</v>
-      </c>
-      <c r="DC16" s="1">
-        <f t="shared" ref="DC16:DL16" si="24">8-DC15</f>
-        <v>3.9613998236983203</v>
-      </c>
-      <c r="DD16" s="1">
-        <f t="shared" si="24"/>
-        <v>3.8886967305429136</v>
-      </c>
-      <c r="DE16" s="1">
-        <f t="shared" si="24"/>
-        <v>3.04048174289961</v>
-      </c>
-      <c r="DF16" s="1">
-        <f t="shared" si="24"/>
-        <v>1.5373453626231948</v>
-      </c>
-      <c r="DG16" s="1">
-        <f t="shared" si="24"/>
-        <v>1.211100505246864</v>
-      </c>
-      <c r="DH16" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0032583037174714</v>
-      </c>
-      <c r="DI16" s="1">
-        <f t="shared" si="24"/>
-        <v>0.88740758612801596</v>
-      </c>
-      <c r="DJ16" s="1">
-        <f t="shared" si="24"/>
-        <v>0.85345286492541472</v>
-      </c>
-      <c r="DK16" s="1">
-        <f t="shared" si="24"/>
-        <v>0.84424611157596452</v>
-      </c>
-      <c r="DL16" s="1">
-        <f t="shared" si="24"/>
-        <v>0.8207759164379187</v>
-      </c>
+    <row r="16" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="EN16" s="3"/>
+      <c r="EO16" s="3"/>
+      <c r="EP16" s="3"/>
+      <c r="EQ16" s="3"/>
+      <c r="ER16" s="3"/>
+      <c r="ES16" s="3"/>
+      <c r="ET16" s="3"/>
+      <c r="EU16" s="3"/>
+      <c r="EV16" s="3"/>
+      <c r="EW16" s="3"/>
+      <c r="EX16" s="3"/>
+      <c r="EY16" s="3"/>
+      <c r="FA16" s="3"/>
+      <c r="FB16" s="3"/>
+      <c r="FC16" s="3"/>
+      <c r="FD16" s="3"/>
+      <c r="FE16" s="3"/>
+      <c r="FF16" s="3"/>
+      <c r="FG16" s="3"/>
+      <c r="FH16" s="3"/>
+      <c r="FI16" s="3"/>
+      <c r="FJ16" s="3"/>
+      <c r="FK16" s="3"/>
+      <c r="FL16" s="3"/>
+      <c r="FN16" s="3"/>
+      <c r="FO16" s="3"/>
+      <c r="FP16" s="3"/>
+      <c r="FQ16" s="3"/>
+      <c r="FR16" s="3"/>
+      <c r="FS16" s="3"/>
+      <c r="FT16" s="3"/>
+      <c r="FU16" s="3"/>
+      <c r="FV16" s="3"/>
+      <c r="FW16" s="3"/>
+      <c r="FX16" s="3"/>
+      <c r="FY16" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
@@ -7110,42 +9262,43 @@
         <v>1.0295977535790095</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:M22" si="25">Q15</f>
+        <f t="shared" ref="E22:M22" si="27">Q15</f>
         <v>1.030736098061102</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.99619508686938207</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.94657375254700049</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.94969487300775846</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95061839782004476</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95172415953319911</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95337972438899243</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95301309681828328</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95324157169309975</v>
       </c>
       <c r="N22" s="1">
+        <f>B22</f>
         <v>1</v>
       </c>
     </row>
@@ -7162,42 +9315,43 @@
         <v>1.8613454617616614</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:M23" si="26">AD15</f>
+        <f t="shared" ref="E23:M23" si="28">AD15</f>
         <v>1.8606905148937669</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8618339180000616</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8412833273196954</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8715615291641294</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8722262709021453</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8788805220164198</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8815864755175928</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8791921612970024</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8805392295099488</v>
       </c>
       <c r="N23" s="1">
+        <f t="shared" ref="N23:N29" si="29">B23</f>
         <v>2</v>
       </c>
     </row>
@@ -7214,42 +9368,43 @@
         <v>2.3122487969738206</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24:M24" si="27">AQ15</f>
+        <f t="shared" ref="E24:M24" si="30">AQ15</f>
         <v>2.2947094823902501</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.5981957403553859</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.7648141407236415</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.8484858722040607</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.871824623094847</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.8881822051504766</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.8984178028356058</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.8986121163822296</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.901335754302965</v>
       </c>
       <c r="N24" s="1">
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
     </row>
@@ -7266,42 +9421,43 @@
         <v>2.8020007024257914</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25:M25" si="28">BD15</f>
+        <f t="shared" ref="E25:M25" si="31">BD15</f>
         <v>2.8364076052399154</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.1044235974849972</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.5369959377223505</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.6736826131230114</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.7448729762858108</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.7735522389613232</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.7849539739232947</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.7807138140659347</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.7851722010260422</v>
       </c>
       <c r="N25" s="1">
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -7318,42 +9474,43 @@
         <v>3.2764143595553352</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:M26" si="29">BQ15</f>
+        <f t="shared" ref="E26:M26" si="32">BQ15</f>
         <v>3.3026923265896695</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="32"/>
+        <v>3.7418881490223104</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.2640087454588329</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.4089937249061046</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.4425014248597847</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.4746687249470698</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.4892103403717218</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.4890937396179087</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="32"/>
+        <v>4.492880840799983</v>
+      </c>
+      <c r="N26" s="1">
         <f t="shared" si="29"/>
-        <v>3.7418881490223104</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.2640087454588329</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.4089937249061046</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.4425014248597847</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.4746687249470698</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.4892103403717218</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.4890937396179087</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="29"/>
-        <v>4.492880840799983</v>
-      </c>
-      <c r="N26" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7370,42 +9527,43 @@
         <v>3.4591141057331942</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:M27" si="30">CD15</f>
+        <f t="shared" ref="E27:M27" si="33">CD15</f>
         <v>3.4441136613798307</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4.3518879319483572</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.0051233312501813</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.2572092035205014</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.3100558164504612</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.364603249841001</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.3819940317509323</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.3829679854593886</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.3917876147739072</v>
       </c>
       <c r="N27" s="1">
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -7422,42 +9580,43 @@
         <v>3.7359858546549649</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28:M28" si="31">CQ15</f>
+        <f t="shared" ref="E28:M28" si="34">CQ15</f>
         <v>3.9246026792724811</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4.6568768406949665</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5.7246666726761282</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.0573147907586318</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.1497002684830679</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.2395780937384826</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.2638678470647067</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.2722498658551258</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.2842853089283972</v>
       </c>
       <c r="N28" s="1">
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
     </row>
@@ -7474,43 +9633,309 @@
         <v>4.0386001763016797</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:M29" si="32">DD15</f>
+        <f t="shared" ref="E29:M29" si="35">DD15</f>
         <v>4.1113032694570864</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>4.95951825710039</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>6.4626546373768052</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>6.788899494753136</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>6.9967416962825286</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7.112592413871984</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7.1465471350745853</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7.1557538884240355</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7.1792240835620813</v>
       </c>
       <c r="N29" s="1">
+        <f t="shared" si="29"/>
         <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <f>DO15</f>
+        <v>3.3115921151683567</v>
+      </c>
+      <c r="D30" s="1">
+        <f>DP15</f>
+        <v>4.0683557287926968</v>
+      </c>
+      <c r="E30" s="1">
+        <f>DQ15</f>
+        <v>4.0479056091300993</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ref="F30:M30" si="36">DR15</f>
+        <v>5.212015381596717</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="36"/>
+        <v>7.49835086483212</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="36"/>
+        <v>8.2384376580393077</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="36"/>
+        <v>8.5405248802508051</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="36"/>
+        <v>8.7779770025362733</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="36"/>
+        <v>8.8305148048009432</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="36"/>
+        <v>8.8726568669960013</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="36"/>
+        <v>8.9128667051949293</v>
+      </c>
+      <c r="N30" s="1">
+        <f>B30</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <f>EB15</f>
+        <v>2.3892394241536308</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:M31" si="37">EC15</f>
+        <v>4.4453325391717025</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="37"/>
+        <v>4.535246984812388</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="37"/>
+        <v>6.0441865886481239</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="37"/>
+        <v>8.1881835258864601</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="37"/>
+        <v>9.2274734983472193</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="37"/>
+        <v>9.7438707464318206</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="37"/>
+        <v>10.096276990195857</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="37"/>
+        <v>10.220536444728845</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="37"/>
+        <v>10.149103900387511</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="37"/>
+        <v>10.214816341540876</v>
+      </c>
+      <c r="N31" s="1">
+        <f>B31</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <f>EO15</f>
+        <v>2.4904352201961184</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:M32" si="38">EP15</f>
+        <v>4.3322805747312962</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="38"/>
+        <v>4.5753348135699827</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="38"/>
+        <v>5.6820947685312859</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="38"/>
+        <v>8.310245254368823</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="38"/>
+        <v>9.8687862590944135</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="38"/>
+        <v>10.590543556135549</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="38"/>
+        <v>11.066562366058806</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="38"/>
+        <v>11.176388544647597</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="38"/>
+        <v>11.246815921253306</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="38"/>
+        <v>11.353873640822171</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" ref="N32:N34" si="39">B32</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <f>FB15</f>
+        <v>2.2750135674381484</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33:M33" si="40">FC15</f>
+        <v>4.5573100989474922</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="40"/>
+        <v>3.9989127580661039</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="40"/>
+        <v>6.1642974962175936</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="40"/>
+        <v>8.2912088739221037</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="40"/>
+        <v>10.572529375786678</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="40"/>
+        <v>11.491969962750325</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="40"/>
+        <v>12.276813456209293</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="40"/>
+        <v>12.453730374304532</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="40"/>
+        <v>12.280010880563319</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="40"/>
+        <v>12.444106971753138</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="39"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <f>FO15</f>
+        <v>2.32508548012424</v>
+      </c>
+      <c r="D34" s="1">
+        <f>FP15</f>
+        <v>4.5273020790868319</v>
+      </c>
+      <c r="E34" s="1">
+        <f>FQ15</f>
+        <v>5.2861795452388378</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:M34" si="41">FR15</f>
+        <v>6.7985459062053044</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="41"/>
+        <v>7.6859969454653045</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="41"/>
+        <v>9.9466044060282002</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="41"/>
+        <v>11.86112841003669</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="41"/>
+        <v>13.080706686003422</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="41"/>
+        <v>13.243708139145529</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="41"/>
+        <v>12.989846380611624</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="41"/>
+        <v>13.339712664667053</v>
+      </c>
+      <c r="N34" s="1">
+        <f>B34</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
